--- a/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
+++ b/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>完成10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成80%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,17 +245,20 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -557,22 +572,26 @@
     <col min="3" max="3" width="7.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="10">
         <v>42700</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <v>42706</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F1" s="11">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -588,8 +607,11 @@
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -602,11 +624,14 @@
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -622,8 +647,11 @@
       <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -634,11 +662,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -649,11 +680,14 @@
         <v>18</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -664,9 +698,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -677,9 +712,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -690,9 +726,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -701,9 +738,10 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1"/>
     <row r="37" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
+++ b/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,13 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -573,14 +585,15 @@
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="10">
         <v>42700</v>
       </c>
@@ -588,10 +601,13 @@
         <v>42706</v>
       </c>
       <c r="F1" s="11">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>42716</v>
+      </c>
+      <c r="G1" s="11">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -607,11 +623,14 @@
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -630,8 +649,11 @@
       <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -650,8 +672,11 @@
       <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -668,8 +693,11 @@
       <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -686,8 +714,11 @@
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -700,8 +731,9 @@
       <c r="D7" s="9"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -714,8 +746,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -728,8 +761,9 @@
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -740,8 +774,9 @@
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1"/>
     <row r="37" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
+++ b/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>完成80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -586,9 +600,10 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -606,8 +621,11 @@
       <c r="G1" s="11">
         <v>42720</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H1" s="17">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -629,8 +647,11 @@
       <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -652,8 +673,11 @@
       <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -675,8 +699,11 @@
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -696,8 +723,11 @@
       <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -717,8 +747,11 @@
       <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -732,8 +765,11 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -747,8 +783,11 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -762,8 +801,9 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -775,8 +815,9 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="37" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
+++ b/Tool/OpenCard/Document/广州长隆停车场-ETC(粤通卡)进出收费工作进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,17 +274,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,15 +600,15 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="10">
         <v>42700</v>
       </c>
@@ -621,11 +621,14 @@
       <c r="G1" s="11">
         <v>42720</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="15">
         <v>42730</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I1" s="15">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -650,8 +653,11 @@
       <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -676,8 +682,11 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -702,8 +711,11 @@
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -726,8 +738,11 @@
       <c r="H5" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -750,8 +765,11 @@
       <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -768,8 +786,11 @@
       <c r="H7" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -783,11 +804,14 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -802,8 +826,9 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -816,8 +841,9 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1"/>
     <row r="37" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
